--- a/GRE-prep.xlsx
+++ b/GRE-prep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bsidd\Desktop\GRE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bsidd\Desktop\Resources\Graduate Exams\GRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8946D71D-1D6F-4F86-A425-40533BAFA200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EECAB9-7D79-4694-B655-8B4143DB527F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GRE-Practice" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,6 +440,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -577,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -603,6 +610,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4633,8 +4641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:W38"/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="99" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5572,8 +5580,12 @@
       <c r="G34" s="11">
         <v>170</v>
       </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
+      <c r="H34" s="11">
+        <v>6</v>
+      </c>
+      <c r="I34" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D36" t="s">
@@ -5588,6 +5600,12 @@
       <c r="G36">
         <v>169</v>
       </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D37" t="s">
@@ -5601,6 +5619,12 @@
       </c>
       <c r="G37">
         <v>170</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
@@ -5624,8 +5648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D789E603-F565-40FA-8A00-93FBEC29DC09}">
   <dimension ref="B3:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6596,7 +6620,7 @@
       <c r="B39">
         <v>36</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="17" t="s">
         <v>85</v>
       </c>
       <c r="D39" s="1">
@@ -7215,7 +7239,7 @@
       <c r="B62">
         <v>59</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="17" t="s">
         <v>127</v>
       </c>
       <c r="D62" s="1">
@@ -7329,8 +7353,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>